--- a/SIRS MODELS/spain/04_02_2020.xlsx
+++ b/SIRS MODELS/spain/04_02_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C1645-7697-4E9B-937F-B344B02C0B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E999B7D2-EAEF-4B9D-94FD-3D53F5605913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1555,612 +1555,612 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$4:$B$369</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$4:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="366"/>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>188</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>189</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>190</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>191</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>192</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>193</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>194</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>195</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>196</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>197</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>198</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>199</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>200</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,612 +2804,612 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$4:$B$369</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$4:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="366"/>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>188</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>189</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>190</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>191</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>192</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>193</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>194</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>195</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>196</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>197</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>198</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>199</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>200</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,8 +4048,8 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="0"/>
+          <c:max val="43971"/>
+          <c:min val="43886"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4100,9 +4100,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>Days since february 25th</a:t>
+                  <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>DATE</a:t>
                 </a:r>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4135,7 +4138,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4175,12 +4178,12 @@
         <c:crossAx val="1353300159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4232,7 +4235,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>POPULATION</a:t>
+                  <a:t>INFECTED POPULATION</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4476,576 +4479,565 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$23:$B$204</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$23:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>52</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>56</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>64</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>65</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>67</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>69</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>70</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>71</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>72</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>73</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>74</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>75</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>76</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>77</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>78</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>79</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>80</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>81</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>82</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>83</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>84</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>85</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>86</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>87</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>88</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>90</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>91</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>92</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>94</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>95</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>96</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>97</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>98</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>99</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>100</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>101</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>102</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>103</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>104</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>105</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>106</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>107</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>108</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>109</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>110</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>111</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>112</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>113</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>114</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>115</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>116</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>117</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>118</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>119</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>120</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>121</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>122</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>123</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>124</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>125</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>126</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>127</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>128</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>129</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>130</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>131</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>132</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>133</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>134</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>135</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>136</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>137</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>138</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>139</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>140</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>141</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>142</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>143</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>144</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>145</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>146</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>147</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>148</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>149</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>150</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>151</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>152</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>153</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>154</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>155</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>156</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>157</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>158</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>159</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>160</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>161</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>162</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>163</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>164</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>165</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>166</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>167</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>168</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>169</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>170</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>171</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>172</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>173</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>174</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>175</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>176</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>177</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>178</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>179</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>180</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>181</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>182</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>183</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>184</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>185</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>186</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>187</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>188</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>189</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>190</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>191</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>192</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>193</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>194</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>195</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>196</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>197</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>198</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>199</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>200</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5620,9 +5612,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5644,555 +5634,555 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$23:$B$204</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$23:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>52</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>56</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>64</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>65</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>67</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>69</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>70</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>71</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>72</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>73</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>74</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>75</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>76</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>77</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>78</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>79</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>80</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>81</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>82</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>83</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>84</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>85</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>86</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>87</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>88</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>90</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>91</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>92</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>94</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>95</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>96</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>97</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>98</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>99</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>100</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>101</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>102</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>103</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>104</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>105</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>106</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>107</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>108</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>109</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>110</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>111</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>112</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>113</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>114</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>115</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>116</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>117</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>118</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>119</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>120</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>121</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>122</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>123</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>124</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>125</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>126</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>127</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>128</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>129</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>130</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>131</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>132</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>133</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>134</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>135</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>136</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>137</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>138</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>139</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>140</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>141</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>142</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>143</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>144</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>145</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>146</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>147</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>148</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>149</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>150</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>151</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>152</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>153</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>154</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>155</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>156</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>157</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>158</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>159</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>160</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>161</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>162</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>163</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>164</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>165</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>166</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>167</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>168</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>169</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>170</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>171</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>172</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>173</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>174</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>175</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>176</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>177</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>178</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>179</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>180</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>181</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>182</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>183</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>184</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>185</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>186</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>187</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>188</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>189</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>190</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>191</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>192</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>193</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>194</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>195</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>196</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>197</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>198</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>199</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>200</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6288,8 +6278,8 @@
         <c:axId val="2005682768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="39"/>
-          <c:min val="19"/>
+          <c:max val="43929"/>
+          <c:min val="43904"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6342,7 +6332,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>DAYS SINCE FEBRUARY 25TH</a:t>
+                  <a:t>DATE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6376,7 +6366,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6421,7 +6411,7 @@
         <c:axId val="1155306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="80000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6474,7 +6464,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>INFECTED</a:t>
+                  <a:t>INFECTED POPULATION</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8121,8 +8111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8567,7 +8557,7 @@
       <c r="S9" s="189"/>
       <c r="T9" s="190"/>
       <c r="U9" s="97">
-        <f>U8/(U7^U6)</f>
+        <f>(U8/(U7^U6))</f>
         <v>2.5589825388949165E-3</v>
       </c>
     </row>
@@ -11052,11 +11042,11 @@
         <v>20279</v>
       </c>
       <c r="J43" s="158">
-        <f t="shared" ref="J43:J97" si="83">S43</f>
+        <f>S43</f>
         <v>76518</v>
       </c>
       <c r="K43" s="159">
-        <f t="shared" ref="K43:K68" si="84">INT((Q$17*J43+K42)/(1+P$17+S$17))</f>
+        <f t="shared" ref="K43:K68" si="83">INT((Q$17*J43+K42)/(1+P$17+S$17))</f>
         <v>30108</v>
       </c>
       <c r="L43" s="160">
@@ -11106,11 +11096,11 @@
         <v>114695</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" ref="E43:E97" si="85">E43+IF(N44&gt;0,N44,0)</f>
+        <f t="shared" ref="E44:E97" si="84">E43+IF(N44&gt;0,N44,0)</f>
         <v>33643</v>
       </c>
       <c r="F44" s="63">
-        <f t="shared" ref="F44:F107" si="86">D44*F$42/D$42</f>
+        <f t="shared" ref="F44:F107" si="85">D44*F$42/D$42</f>
         <v>10590.852273234284</v>
       </c>
       <c r="G44" s="28">
@@ -11126,11 +11116,11 @@
         <v>15869</v>
       </c>
       <c r="J44" s="38">
+        <f t="shared" ref="J44:J97" si="86">S44</f>
+        <v>77604</v>
+      </c>
+      <c r="K44" s="37">
         <f t="shared" si="83"/>
-        <v>77604</v>
-      </c>
-      <c r="K44" s="37">
-        <f t="shared" si="84"/>
         <v>33643</v>
       </c>
       <c r="L44" s="90">
@@ -11179,11 +11169,11 @@
         <v>115323</v>
       </c>
       <c r="E45" s="35">
+        <f t="shared" si="84"/>
+        <v>37342</v>
+      </c>
+      <c r="F45" s="30">
         <f t="shared" si="85"/>
-        <v>37342</v>
-      </c>
-      <c r="F45" s="30">
-        <f t="shared" si="86"/>
         <v>10648.841333154865</v>
       </c>
       <c r="G45" s="27">
@@ -11199,11 +11189,11 @@
         <v>11620</v>
       </c>
       <c r="J45" s="35">
+        <f t="shared" si="86"/>
+        <v>78232</v>
+      </c>
+      <c r="K45" s="39">
         <f t="shared" si="83"/>
-        <v>78232</v>
-      </c>
-      <c r="K45" s="39">
-        <f t="shared" si="84"/>
         <v>37342</v>
       </c>
       <c r="L45" s="92">
@@ -11252,11 +11242,11 @@
         <v>115499</v>
       </c>
       <c r="E46" s="5">
+        <f t="shared" si="84"/>
+        <v>41198</v>
+      </c>
+      <c r="F46" s="63">
         <f t="shared" si="85"/>
-        <v>41198</v>
-      </c>
-      <c r="F46" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G46" s="28">
@@ -11272,11 +11262,11 @@
         <v>7516</v>
       </c>
       <c r="J46" s="38">
+        <f t="shared" si="86"/>
+        <v>78408</v>
+      </c>
+      <c r="K46" s="37">
         <f t="shared" si="83"/>
-        <v>78408</v>
-      </c>
-      <c r="K46" s="37">
-        <f t="shared" si="84"/>
         <v>41198</v>
       </c>
       <c r="L46" s="90">
@@ -11325,11 +11315,11 @@
         <v>115499</v>
       </c>
       <c r="E47" s="35">
+        <f t="shared" si="84"/>
+        <v>45204</v>
+      </c>
+      <c r="F47" s="30">
         <f t="shared" si="85"/>
-        <v>45204</v>
-      </c>
-      <c r="F47" s="30">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G47" s="27">
@@ -11345,11 +11335,11 @@
         <v>3535</v>
       </c>
       <c r="J47" s="35">
+        <f t="shared" si="86"/>
+        <v>78144</v>
+      </c>
+      <c r="K47" s="39">
         <f t="shared" si="83"/>
-        <v>78144</v>
-      </c>
-      <c r="K47" s="39">
-        <f t="shared" si="84"/>
         <v>45204</v>
       </c>
       <c r="L47" s="92">
@@ -11400,11 +11390,11 @@
         <v>115499</v>
       </c>
       <c r="E48" s="5">
+        <f t="shared" si="84"/>
+        <v>49354</v>
+      </c>
+      <c r="F48" s="63">
         <f t="shared" si="85"/>
-        <v>49354</v>
-      </c>
-      <c r="F48" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G48" s="28">
@@ -11420,11 +11410,11 @@
         <v>-348</v>
       </c>
       <c r="J48" s="38">
+        <f t="shared" si="86"/>
+        <v>77456</v>
+      </c>
+      <c r="K48" s="37">
         <f t="shared" si="83"/>
-        <v>77456</v>
-      </c>
-      <c r="K48" s="37">
-        <f t="shared" si="84"/>
         <v>49354</v>
       </c>
       <c r="L48" s="90">
@@ -11473,11 +11463,11 @@
         <v>115499</v>
       </c>
       <c r="E49" s="35">
+        <f t="shared" si="84"/>
+        <v>53642</v>
+      </c>
+      <c r="F49" s="30">
         <f t="shared" si="85"/>
-        <v>53642</v>
-      </c>
-      <c r="F49" s="30">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G49" s="27">
@@ -11493,11 +11483,11 @@
         <v>-4161</v>
       </c>
       <c r="J49" s="35">
+        <f t="shared" si="86"/>
+        <v>76364</v>
+      </c>
+      <c r="K49" s="39">
         <f t="shared" si="83"/>
-        <v>76364</v>
-      </c>
-      <c r="K49" s="39">
-        <f t="shared" si="84"/>
         <v>53642</v>
       </c>
       <c r="L49" s="92">
@@ -11546,11 +11536,11 @@
         <v>115499</v>
       </c>
       <c r="E50" s="5">
+        <f t="shared" si="84"/>
+        <v>58063</v>
+      </c>
+      <c r="F50" s="63">
         <f t="shared" si="85"/>
-        <v>58063</v>
-      </c>
-      <c r="F50" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G50" s="28">
@@ -11566,11 +11556,11 @@
         <v>-7935</v>
       </c>
       <c r="J50" s="38">
+        <f t="shared" si="86"/>
+        <v>74890</v>
+      </c>
+      <c r="K50" s="37">
         <f t="shared" si="83"/>
-        <v>74890</v>
-      </c>
-      <c r="K50" s="37">
-        <f t="shared" si="84"/>
         <v>58063</v>
       </c>
       <c r="L50" s="90">
@@ -11619,11 +11609,11 @@
         <v>115499</v>
       </c>
       <c r="E51" s="35">
+        <f t="shared" si="84"/>
+        <v>62611</v>
+      </c>
+      <c r="F51" s="30">
         <f t="shared" si="85"/>
-        <v>62611</v>
-      </c>
-      <c r="F51" s="30">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G51" s="27">
@@ -11639,11 +11629,11 @@
         <v>-11703</v>
       </c>
       <c r="J51" s="18">
+        <f t="shared" si="86"/>
+        <v>73059</v>
+      </c>
+      <c r="K51" s="36">
         <f t="shared" si="83"/>
-        <v>73059</v>
-      </c>
-      <c r="K51" s="36">
-        <f t="shared" si="84"/>
         <v>62611</v>
       </c>
       <c r="L51" s="91">
@@ -11692,11 +11682,11 @@
         <v>115499</v>
       </c>
       <c r="E52" s="5">
+        <f t="shared" si="84"/>
+        <v>67281</v>
+      </c>
+      <c r="F52" s="63">
         <f t="shared" si="85"/>
-        <v>67281</v>
-      </c>
-      <c r="F52" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G52" s="28">
@@ -11712,11 +11702,11 @@
         <v>-15498</v>
       </c>
       <c r="J52" s="38">
+        <f t="shared" si="86"/>
+        <v>70897</v>
+      </c>
+      <c r="K52" s="37">
         <f t="shared" si="83"/>
-        <v>70897</v>
-      </c>
-      <c r="K52" s="37">
-        <f t="shared" si="84"/>
         <v>67281</v>
       </c>
       <c r="L52" s="90">
@@ -11765,11 +11755,11 @@
         <v>115499</v>
       </c>
       <c r="E53" s="35">
+        <f t="shared" si="84"/>
+        <v>72070</v>
+      </c>
+      <c r="F53" s="30">
         <f t="shared" si="85"/>
-        <v>72070</v>
-      </c>
-      <c r="F53" s="30">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G53" s="27">
@@ -11785,11 +11775,11 @@
         <v>-19355</v>
       </c>
       <c r="J53" s="18">
+        <f t="shared" si="86"/>
+        <v>68432</v>
+      </c>
+      <c r="K53" s="36">
         <f t="shared" si="83"/>
-        <v>68432</v>
-      </c>
-      <c r="K53" s="36">
-        <f t="shared" si="84"/>
         <v>72070</v>
       </c>
       <c r="L53" s="91">
@@ -11838,11 +11828,11 @@
         <v>115499</v>
       </c>
       <c r="E54" s="5">
+        <f t="shared" si="84"/>
+        <v>76974</v>
+      </c>
+      <c r="F54" s="63">
         <f t="shared" si="85"/>
-        <v>76974</v>
-      </c>
-      <c r="F54" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G54" s="28">
@@ -11858,11 +11848,11 @@
         <v>-23310</v>
       </c>
       <c r="J54" s="38">
+        <f t="shared" si="86"/>
+        <v>65692</v>
+      </c>
+      <c r="K54" s="37">
         <f t="shared" si="83"/>
-        <v>65692</v>
-      </c>
-      <c r="K54" s="37">
-        <f t="shared" si="84"/>
         <v>76974</v>
       </c>
       <c r="L54" s="90">
@@ -11911,11 +11901,11 @@
         <v>115499</v>
       </c>
       <c r="E55" s="35">
+        <f t="shared" si="84"/>
+        <v>81991</v>
+      </c>
+      <c r="F55" s="30">
         <f t="shared" si="85"/>
-        <v>81991</v>
-      </c>
-      <c r="F55" s="30">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G55" s="27">
@@ -11931,11 +11921,11 @@
         <v>-27400</v>
       </c>
       <c r="J55" s="35">
+        <f t="shared" si="86"/>
+        <v>62708</v>
+      </c>
+      <c r="K55" s="39">
         <f t="shared" si="83"/>
-        <v>62708</v>
-      </c>
-      <c r="K55" s="39">
-        <f t="shared" si="84"/>
         <v>81991</v>
       </c>
       <c r="L55" s="92">
@@ -11984,11 +11974,11 @@
         <v>115499</v>
       </c>
       <c r="E56" s="5">
+        <f t="shared" si="84"/>
+        <v>87119</v>
+      </c>
+      <c r="F56" s="63">
         <f t="shared" si="85"/>
-        <v>87119</v>
-      </c>
-      <c r="F56" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G56" s="28">
@@ -12004,11 +11994,11 @@
         <v>-31663</v>
       </c>
       <c r="J56" s="38">
+        <f t="shared" si="86"/>
+        <v>59511</v>
+      </c>
+      <c r="K56" s="37">
         <f t="shared" si="83"/>
-        <v>59511</v>
-      </c>
-      <c r="K56" s="37">
-        <f t="shared" si="84"/>
         <v>87119</v>
       </c>
       <c r="L56" s="90">
@@ -12057,11 +12047,11 @@
         <v>115499</v>
       </c>
       <c r="E57" s="35">
+        <f t="shared" si="84"/>
+        <v>92358</v>
+      </c>
+      <c r="F57" s="30">
         <f t="shared" si="85"/>
-        <v>92358</v>
-      </c>
-      <c r="F57" s="30">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G57" s="27">
@@ -12077,11 +12067,11 @@
         <v>-36138</v>
       </c>
       <c r="J57" s="35">
+        <f t="shared" si="86"/>
+        <v>56134</v>
+      </c>
+      <c r="K57" s="39">
         <f t="shared" si="83"/>
-        <v>56134</v>
-      </c>
-      <c r="K57" s="39">
-        <f t="shared" si="84"/>
         <v>92358</v>
       </c>
       <c r="L57" s="92">
@@ -12130,11 +12120,11 @@
         <v>115499</v>
       </c>
       <c r="E58" s="5">
+        <f t="shared" si="84"/>
+        <v>97708</v>
+      </c>
+      <c r="F58" s="63">
         <f t="shared" si="85"/>
-        <v>97708</v>
-      </c>
-      <c r="F58" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G58" s="28">
@@ -12150,11 +12140,11 @@
         <v>-40867</v>
       </c>
       <c r="J58" s="5">
+        <f t="shared" si="86"/>
+        <v>52611</v>
+      </c>
+      <c r="K58" s="37">
         <f t="shared" si="83"/>
-        <v>52611</v>
-      </c>
-      <c r="K58" s="37">
-        <f t="shared" si="84"/>
         <v>97708</v>
       </c>
       <c r="L58" s="90">
@@ -12203,11 +12193,11 @@
         <v>115499</v>
       </c>
       <c r="E59" s="4">
+        <f t="shared" si="84"/>
+        <v>103169</v>
+      </c>
+      <c r="F59" s="64">
         <f t="shared" si="85"/>
-        <v>103169</v>
-      </c>
-      <c r="F59" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G59" s="27">
@@ -12223,11 +12213,11 @@
         <v>-45892</v>
       </c>
       <c r="J59" s="4">
+        <f t="shared" si="86"/>
+        <v>48977</v>
+      </c>
+      <c r="K59" s="51">
         <f t="shared" si="83"/>
-        <v>48977</v>
-      </c>
-      <c r="K59" s="51">
-        <f t="shared" si="84"/>
         <v>103169</v>
       </c>
       <c r="L59" s="86">
@@ -12276,11 +12266,11 @@
         <v>115499</v>
       </c>
       <c r="E60" s="2">
+        <f t="shared" si="84"/>
+        <v>108745</v>
+      </c>
+      <c r="F60" s="63">
         <f t="shared" si="85"/>
-        <v>108745</v>
-      </c>
-      <c r="F60" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G60" s="28">
@@ -12296,11 +12286,11 @@
         <v>-51257</v>
       </c>
       <c r="J60" s="2">
+        <f t="shared" si="86"/>
+        <v>45269</v>
+      </c>
+      <c r="K60" s="48">
         <f t="shared" si="83"/>
-        <v>45269</v>
-      </c>
-      <c r="K60" s="48">
-        <f t="shared" si="84"/>
         <v>108745</v>
       </c>
       <c r="L60" s="87">
@@ -12349,11 +12339,11 @@
         <v>115499</v>
       </c>
       <c r="E61" s="4">
+        <f t="shared" si="84"/>
+        <v>114439</v>
+      </c>
+      <c r="F61" s="64">
         <f t="shared" si="85"/>
-        <v>114439</v>
-      </c>
-      <c r="F61" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G61" s="27">
@@ -12369,11 +12359,11 @@
         <v>-57009</v>
       </c>
       <c r="J61" s="4">
+        <f t="shared" si="86"/>
+        <v>41524</v>
+      </c>
+      <c r="K61" s="51">
         <f t="shared" si="83"/>
-        <v>41524</v>
-      </c>
-      <c r="K61" s="51">
-        <f t="shared" si="84"/>
         <v>114439</v>
       </c>
       <c r="L61" s="86">
@@ -12422,11 +12412,11 @@
         <v>115499</v>
       </c>
       <c r="E62" s="2">
+        <f t="shared" si="84"/>
+        <v>120255</v>
+      </c>
+      <c r="F62" s="63">
         <f t="shared" si="85"/>
-        <v>120255</v>
-      </c>
-      <c r="F62" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G62" s="28">
@@ -12442,11 +12432,11 @@
         <v>-63194</v>
       </c>
       <c r="J62" s="2">
+        <f t="shared" si="86"/>
+        <v>37781</v>
+      </c>
+      <c r="K62" s="48">
         <f t="shared" si="83"/>
-        <v>37781</v>
-      </c>
-      <c r="K62" s="48">
-        <f t="shared" si="84"/>
         <v>120255</v>
       </c>
       <c r="L62" s="87">
@@ -12495,11 +12485,11 @@
         <v>115499</v>
       </c>
       <c r="E63" s="4">
+        <f t="shared" si="84"/>
+        <v>126200</v>
+      </c>
+      <c r="F63" s="64">
         <f t="shared" si="85"/>
-        <v>126200</v>
-      </c>
-      <c r="F63" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G63" s="27">
@@ -12515,11 +12505,11 @@
         <v>-69860</v>
       </c>
       <c r="J63" s="4">
+        <f t="shared" si="86"/>
+        <v>34080</v>
+      </c>
+      <c r="K63" s="51">
         <f t="shared" si="83"/>
-        <v>34080</v>
-      </c>
-      <c r="K63" s="51">
-        <f t="shared" si="84"/>
         <v>126200</v>
       </c>
       <c r="L63" s="86">
@@ -12568,11 +12558,11 @@
         <v>115499</v>
       </c>
       <c r="E64" s="2">
+        <f t="shared" si="84"/>
+        <v>132282</v>
+      </c>
+      <c r="F64" s="63">
         <f t="shared" si="85"/>
-        <v>132282</v>
-      </c>
-      <c r="F64" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G64" s="28">
@@ -12588,11 +12578,11 @@
         <v>-77057</v>
       </c>
       <c r="J64" s="2">
+        <f t="shared" si="86"/>
+        <v>30458</v>
+      </c>
+      <c r="K64" s="48">
         <f t="shared" si="83"/>
-        <v>30458</v>
-      </c>
-      <c r="K64" s="48">
-        <f t="shared" si="84"/>
         <v>132282</v>
       </c>
       <c r="L64" s="87">
@@ -12641,11 +12631,11 @@
         <v>115499</v>
       </c>
       <c r="E65" s="4">
+        <f t="shared" si="84"/>
+        <v>138510</v>
+      </c>
+      <c r="F65" s="64">
         <f t="shared" si="85"/>
-        <v>138510</v>
-      </c>
-      <c r="F65" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G65" s="27">
@@ -12661,11 +12651,11 @@
         <v>-84834</v>
       </c>
       <c r="J65" s="4">
+        <f t="shared" si="86"/>
+        <v>26953</v>
+      </c>
+      <c r="K65" s="51">
         <f t="shared" si="83"/>
-        <v>26953</v>
-      </c>
-      <c r="K65" s="51">
-        <f t="shared" si="84"/>
         <v>138510</v>
       </c>
       <c r="L65" s="86">
@@ -12714,11 +12704,11 @@
         <v>115499</v>
       </c>
       <c r="E66" s="2">
+        <f t="shared" si="84"/>
+        <v>144894</v>
+      </c>
+      <c r="F66" s="63">
         <f t="shared" si="85"/>
-        <v>144894</v>
-      </c>
-      <c r="F66" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G66" s="28">
@@ -12734,11 +12724,11 @@
         <v>-93240</v>
       </c>
       <c r="J66" s="2">
+        <f t="shared" si="86"/>
+        <v>23601</v>
+      </c>
+      <c r="K66" s="48">
         <f t="shared" si="83"/>
-        <v>23601</v>
-      </c>
-      <c r="K66" s="48">
-        <f t="shared" si="84"/>
         <v>144894</v>
       </c>
       <c r="L66" s="87">
@@ -12787,11 +12777,11 @@
         <v>115499</v>
       </c>
       <c r="E67" s="4">
+        <f t="shared" si="84"/>
+        <v>151446</v>
+      </c>
+      <c r="F67" s="64">
         <f t="shared" si="85"/>
-        <v>151446</v>
-      </c>
-      <c r="F67" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G67" s="27">
@@ -12807,11 +12797,11 @@
         <v>-102321</v>
       </c>
       <c r="J67" s="4">
+        <f t="shared" si="86"/>
+        <v>20434</v>
+      </c>
+      <c r="K67" s="51">
         <f t="shared" si="83"/>
-        <v>20434</v>
-      </c>
-      <c r="K67" s="51">
-        <f t="shared" si="84"/>
         <v>151446</v>
       </c>
       <c r="L67" s="86">
@@ -12860,11 +12850,11 @@
         <v>115499</v>
       </c>
       <c r="E68" s="2">
+        <f t="shared" si="84"/>
+        <v>158180</v>
+      </c>
+      <c r="F68" s="63">
         <f t="shared" si="85"/>
-        <v>158180</v>
-      </c>
-      <c r="F68" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G68" s="28">
@@ -12880,11 +12870,11 @@
         <v>-112121</v>
       </c>
       <c r="J68" s="2">
+        <f t="shared" si="86"/>
+        <v>17481</v>
+      </c>
+      <c r="K68" s="48">
         <f t="shared" si="83"/>
-        <v>17481</v>
-      </c>
-      <c r="K68" s="48">
-        <f t="shared" si="84"/>
         <v>158180</v>
       </c>
       <c r="L68" s="87">
@@ -12933,11 +12923,11 @@
         <v>115499</v>
       </c>
       <c r="E69" s="4">
+        <f t="shared" si="84"/>
+        <v>165110</v>
+      </c>
+      <c r="F69" s="64">
         <f t="shared" si="85"/>
-        <v>165110</v>
-      </c>
-      <c r="F69" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G69" s="27">
@@ -12953,7 +12943,7 @@
         <v>-122681</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>14765</v>
       </c>
       <c r="K69" s="51">
@@ -13006,11 +12996,11 @@
         <v>115499</v>
       </c>
       <c r="E70" s="2">
+        <f t="shared" si="84"/>
+        <v>172251</v>
+      </c>
+      <c r="F70" s="63">
         <f t="shared" si="85"/>
-        <v>172251</v>
-      </c>
-      <c r="F70" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G70" s="28">
@@ -13026,7 +13016,7 @@
         <v>-134037</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>12303</v>
       </c>
       <c r="K70" s="48">
@@ -13079,11 +13069,11 @@
         <v>115499</v>
       </c>
       <c r="E71" s="4">
+        <f t="shared" si="84"/>
+        <v>179620</v>
+      </c>
+      <c r="F71" s="64">
         <f t="shared" si="85"/>
-        <v>179620</v>
-      </c>
-      <c r="F71" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G71" s="27">
@@ -13099,7 +13089,7 @@
         <v>-146220</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>10106</v>
       </c>
       <c r="K71" s="51">
@@ -13152,11 +13142,11 @@
         <v>115499</v>
       </c>
       <c r="E72" s="2">
+        <f t="shared" si="84"/>
+        <v>187235</v>
+      </c>
+      <c r="F72" s="63">
         <f t="shared" si="85"/>
-        <v>187235</v>
-      </c>
-      <c r="F72" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G72" s="28">
@@ -13172,7 +13162,7 @@
         <v>-159256</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>8177</v>
       </c>
       <c r="K72" s="48">
@@ -13225,11 +13215,11 @@
         <v>115499</v>
       </c>
       <c r="E73" s="4">
+        <f t="shared" si="84"/>
+        <v>195113</v>
+      </c>
+      <c r="F73" s="64">
         <f t="shared" si="85"/>
-        <v>195113</v>
-      </c>
-      <c r="F73" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G73" s="27">
@@ -13245,7 +13235,7 @@
         <v>-173163</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>6513</v>
       </c>
       <c r="K73" s="51">
@@ -13298,11 +13288,11 @@
         <v>115499</v>
       </c>
       <c r="E74" s="2">
+        <f t="shared" si="84"/>
+        <v>203272</v>
+      </c>
+      <c r="F74" s="63">
         <f t="shared" si="85"/>
-        <v>203272</v>
-      </c>
-      <c r="F74" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G74" s="28">
@@ -13318,7 +13308,7 @@
         <v>-187957</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>5102</v>
       </c>
       <c r="K74" s="48">
@@ -13371,11 +13361,11 @@
         <v>115499</v>
       </c>
       <c r="E75" s="4">
+        <f t="shared" si="84"/>
+        <v>211732</v>
+      </c>
+      <c r="F75" s="64">
         <f t="shared" si="85"/>
-        <v>211732</v>
-      </c>
-      <c r="F75" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G75" s="27">
@@ -13391,7 +13381,7 @@
         <v>-203647</v>
       </c>
       <c r="J75" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>3928</v>
       </c>
       <c r="K75" s="51">
@@ -13444,11 +13434,11 @@
         <v>115499</v>
       </c>
       <c r="E76" s="2">
+        <f t="shared" si="84"/>
+        <v>220510</v>
+      </c>
+      <c r="F76" s="63">
         <f t="shared" si="85"/>
-        <v>220510</v>
-      </c>
-      <c r="F76" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G76" s="28">
@@ -13464,7 +13454,7 @@
         <v>-220239</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>2971</v>
       </c>
       <c r="K76" s="48">
@@ -13517,11 +13507,11 @@
         <v>115499</v>
       </c>
       <c r="E77" s="4">
+        <f t="shared" si="84"/>
+        <v>229626</v>
+      </c>
+      <c r="F77" s="64">
         <f t="shared" si="85"/>
-        <v>229626</v>
-      </c>
-      <c r="F77" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G77" s="27">
@@ -13537,7 +13527,7 @@
         <v>-237739</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>2206</v>
       </c>
       <c r="K77" s="51">
@@ -13590,11 +13580,11 @@
         <v>115499</v>
       </c>
       <c r="E78" s="2">
+        <f t="shared" si="84"/>
+        <v>239099</v>
+      </c>
+      <c r="F78" s="63">
         <f t="shared" si="85"/>
-        <v>239099</v>
-      </c>
-      <c r="F78" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G78" s="28">
@@ -13610,7 +13600,7 @@
         <v>-256150</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>1607</v>
       </c>
       <c r="K78" s="48">
@@ -13663,11 +13653,11 @@
         <v>115499</v>
       </c>
       <c r="E79" s="4">
+        <f t="shared" si="84"/>
+        <v>248947</v>
+      </c>
+      <c r="F79" s="64">
         <f t="shared" si="85"/>
-        <v>248947</v>
-      </c>
-      <c r="F79" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G79" s="27">
@@ -13683,7 +13673,7 @@
         <v>-275478</v>
       </c>
       <c r="J79" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>1147</v>
       </c>
       <c r="K79" s="51">
@@ -13736,11 +13726,11 @@
         <v>115499</v>
       </c>
       <c r="E80" s="2">
+        <f t="shared" si="84"/>
+        <v>259189</v>
+      </c>
+      <c r="F80" s="63">
         <f t="shared" si="85"/>
-        <v>259189</v>
-      </c>
-      <c r="F80" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G80" s="28">
@@ -13756,7 +13746,7 @@
         <v>-295731</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>802</v>
       </c>
       <c r="K80" s="48">
@@ -13809,11 +13799,11 @@
         <v>115499</v>
       </c>
       <c r="E81" s="4">
+        <f t="shared" si="84"/>
+        <v>269844</v>
+      </c>
+      <c r="F81" s="64">
         <f t="shared" si="85"/>
-        <v>269844</v>
-      </c>
-      <c r="F81" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G81" s="27">
@@ -13829,7 +13819,7 @@
         <v>-316919</v>
       </c>
       <c r="J81" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>549</v>
       </c>
       <c r="K81" s="51">
@@ -13882,11 +13872,11 @@
         <v>115499</v>
       </c>
       <c r="E82" s="2">
+        <f t="shared" si="84"/>
+        <v>280931</v>
+      </c>
+      <c r="F82" s="63">
         <f t="shared" si="85"/>
-        <v>280931</v>
-      </c>
-      <c r="F82" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G82" s="28">
@@ -13902,7 +13892,7 @@
         <v>-339057</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>368</v>
       </c>
       <c r="K82" s="48">
@@ -13955,11 +13945,11 @@
         <v>115499</v>
       </c>
       <c r="E83" s="4">
+        <f t="shared" si="84"/>
+        <v>292469</v>
+      </c>
+      <c r="F83" s="64">
         <f t="shared" si="85"/>
-        <v>292469</v>
-      </c>
-      <c r="F83" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G83" s="27">
@@ -13975,7 +13965,7 @@
         <v>-362165</v>
       </c>
       <c r="J83" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>241</v>
       </c>
       <c r="K83" s="51">
@@ -14028,11 +14018,11 @@
         <v>115499</v>
       </c>
       <c r="E84" s="2">
+        <f t="shared" si="84"/>
+        <v>304478</v>
+      </c>
+      <c r="F84" s="63">
         <f t="shared" si="85"/>
-        <v>304478</v>
-      </c>
-      <c r="F84" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G84" s="28">
@@ -14048,7 +14038,7 @@
         <v>-386266</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>154</v>
       </c>
       <c r="K84" s="48">
@@ -14101,11 +14091,11 @@
         <v>115499</v>
       </c>
       <c r="E85" s="4">
+        <f t="shared" si="84"/>
+        <v>316978</v>
+      </c>
+      <c r="F85" s="64">
         <f t="shared" si="85"/>
-        <v>316978</v>
-      </c>
-      <c r="F85" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G85" s="27">
@@ -14121,7 +14111,7 @@
         <v>-411388</v>
       </c>
       <c r="J85" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>96</v>
       </c>
       <c r="K85" s="51">
@@ -14174,11 +14164,11 @@
         <v>115499</v>
       </c>
       <c r="E86" s="2">
+        <f t="shared" si="84"/>
+        <v>329990</v>
+      </c>
+      <c r="F86" s="63">
         <f t="shared" si="85"/>
-        <v>329990</v>
-      </c>
-      <c r="F86" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G86" s="28">
@@ -14194,7 +14184,7 @@
         <v>-437563</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>58</v>
       </c>
       <c r="K86" s="48">
@@ -14247,11 +14237,11 @@
         <v>115499</v>
       </c>
       <c r="E87" s="4">
+        <f t="shared" si="84"/>
+        <v>343536</v>
+      </c>
+      <c r="F87" s="64">
         <f t="shared" si="85"/>
-        <v>343536</v>
-      </c>
-      <c r="F87" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G87" s="27">
@@ -14267,7 +14257,7 @@
         <v>-464828</v>
       </c>
       <c r="J87" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>34</v>
       </c>
       <c r="K87" s="51">
@@ -14320,11 +14310,11 @@
         <v>115499</v>
       </c>
       <c r="E88" s="2">
+        <f t="shared" si="84"/>
+        <v>357637</v>
+      </c>
+      <c r="F88" s="63">
         <f t="shared" si="85"/>
-        <v>357637</v>
-      </c>
-      <c r="F88" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G88" s="28">
@@ -14340,7 +14330,7 @@
         <v>-493222</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>19</v>
       </c>
       <c r="K88" s="48">
@@ -14393,11 +14383,11 @@
         <v>115499</v>
       </c>
       <c r="E89" s="4">
+        <f t="shared" si="84"/>
+        <v>372317</v>
+      </c>
+      <c r="F89" s="64">
         <f t="shared" si="85"/>
-        <v>372317</v>
-      </c>
-      <c r="F89" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G89" s="27">
@@ -14413,7 +14403,7 @@
         <v>-522788</v>
       </c>
       <c r="J89" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>10</v>
       </c>
       <c r="K89" s="51">
@@ -14466,11 +14456,11 @@
         <v>115499</v>
       </c>
       <c r="E90" s="2">
+        <f t="shared" si="84"/>
+        <v>387599</v>
+      </c>
+      <c r="F90" s="63">
         <f t="shared" si="85"/>
-        <v>387599</v>
-      </c>
-      <c r="F90" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G90" s="28">
@@ -14486,7 +14476,7 @@
         <v>-553571</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>5</v>
       </c>
       <c r="K90" s="48">
@@ -14539,11 +14529,11 @@
         <v>115499</v>
       </c>
       <c r="E91" s="4">
+        <f t="shared" si="84"/>
+        <v>403508</v>
+      </c>
+      <c r="F91" s="64">
         <f t="shared" si="85"/>
-        <v>403508</v>
-      </c>
-      <c r="F91" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G91" s="27">
@@ -14559,7 +14549,7 @@
         <v>-585620</v>
       </c>
       <c r="J91" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="K91" s="51">
@@ -14612,11 +14602,11 @@
         <v>115499</v>
       </c>
       <c r="E92" s="2">
+        <f t="shared" si="84"/>
+        <v>420070</v>
+      </c>
+      <c r="F92" s="63">
         <f t="shared" si="85"/>
-        <v>420070</v>
-      </c>
-      <c r="F92" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G92" s="28">
@@ -14632,7 +14622,7 @@
         <v>-618985</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="K92" s="48">
@@ -14685,11 +14675,11 @@
         <v>115499</v>
       </c>
       <c r="E93" s="4">
+        <f t="shared" si="84"/>
+        <v>437312</v>
+      </c>
+      <c r="F93" s="64">
         <f t="shared" si="85"/>
-        <v>437312</v>
-      </c>
-      <c r="F93" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G93" s="27">
@@ -14705,7 +14695,7 @@
         <v>-653720</v>
       </c>
       <c r="J93" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="K93" s="51">
@@ -14758,11 +14748,11 @@
         <v>115499</v>
       </c>
       <c r="E94" s="2">
+        <f t="shared" si="84"/>
+        <v>455262</v>
+      </c>
+      <c r="F94" s="63">
         <f t="shared" si="85"/>
-        <v>455262</v>
-      </c>
-      <c r="F94" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G94" s="28">
@@ -14778,7 +14768,7 @@
         <v>-689881</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="K94" s="48">
@@ -14831,11 +14821,11 @@
         <v>115499</v>
       </c>
       <c r="E95" s="4">
+        <f t="shared" si="84"/>
+        <v>473948</v>
+      </c>
+      <c r="F95" s="64">
         <f t="shared" si="85"/>
-        <v>473948</v>
-      </c>
-      <c r="F95" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G95" s="27">
@@ -14851,7 +14841,7 @@
         <v>-727526</v>
       </c>
       <c r="J95" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="K95" s="51">
@@ -14904,11 +14894,11 @@
         <v>115499</v>
       </c>
       <c r="E96" s="2">
+        <f t="shared" si="84"/>
+        <v>493401</v>
+      </c>
+      <c r="F96" s="63">
         <f t="shared" si="85"/>
-        <v>493401</v>
-      </c>
-      <c r="F96" s="63">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G96" s="28">
@@ -14924,7 +14914,7 @@
         <v>-766716</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="K96" s="48">
@@ -14977,11 +14967,11 @@
         <v>115499</v>
       </c>
       <c r="E97" s="4">
+        <f t="shared" si="84"/>
+        <v>513653</v>
+      </c>
+      <c r="F97" s="64">
         <f t="shared" si="85"/>
-        <v>513653</v>
-      </c>
-      <c r="F97" s="64">
-        <f t="shared" si="86"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G97" s="27">
@@ -14997,7 +14987,7 @@
         <v>-807515</v>
       </c>
       <c r="J97" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="K97" s="51">
@@ -15054,7 +15044,7 @@
         <v>534736</v>
       </c>
       <c r="F98" s="63">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G98" s="28">
@@ -15127,7 +15117,7 @@
         <v>556685</v>
       </c>
       <c r="F99" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G99" s="27">
@@ -15200,7 +15190,7 @@
         <v>579535</v>
       </c>
       <c r="F100" s="63">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G100" s="28">
@@ -15273,7 +15263,7 @@
         <v>603322</v>
       </c>
       <c r="F101" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G101" s="27">
@@ -15346,7 +15336,7 @@
         <v>628086</v>
       </c>
       <c r="F102" s="63">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G102" s="28">
@@ -15419,7 +15409,7 @@
         <v>653866</v>
       </c>
       <c r="F103" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G103" s="27">
@@ -15492,7 +15482,7 @@
         <v>680705</v>
       </c>
       <c r="F104" s="63">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G104" s="28">
@@ -15565,7 +15555,7 @@
         <v>708645</v>
       </c>
       <c r="F105" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G105" s="27">
@@ -15638,7 +15628,7 @@
         <v>737732</v>
       </c>
       <c r="F106" s="63">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G106" s="28">
@@ -15711,7 +15701,7 @@
         <v>768013</v>
       </c>
       <c r="F107" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10665.093044215411</v>
       </c>
       <c r="G107" s="27">
